--- a/Clase24/Libro1.xlsx
+++ b/Clase24/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -56,9 +56,6 @@
     <t>nm@hotmail.com</t>
   </si>
   <si>
-    <t>provincias</t>
-  </si>
-  <si>
     <t>Salta</t>
   </si>
   <si>
@@ -93,13 +90,19 @@
   </si>
   <si>
     <t>Tierra del fuego</t>
+  </si>
+  <si>
+    <t>clientes.id_provincia=provincias.id;</t>
+  </si>
+  <si>
+    <t>id_provincia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,13 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -431,34 +442,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L15"/>
+  <dimension ref="B4:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -473,14 +484,14 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -503,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -526,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -549,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -572,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -595,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -618,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -626,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -634,14 +645,14 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="K12">
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -659,6 +670,11 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
